--- a/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{461D1FA0-AD7C-49E1-9E3D-F29D419B139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4014748D-4676-4B40-B6C0-CB982F599392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3A466EEE-C48E-4E2B-84DF-45049A81F7A1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8427DD20-90D8-40B2-86BD-420EE76C58B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,55 +194,55 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -251,55 +251,49 @@
     <t>6,48%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +302,103 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C006919-339D-4C7E-9684-E55163A608A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E807CB-E3A6-429D-A804-7A32EE53BB0D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1438,13 +1432,13 @@
         <v>137249</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>680551</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -1474,13 +1468,13 @@
         <v>782991</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1545</v>
@@ -1489,13 +1483,13 @@
         <v>1463542</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,28 +1557,28 @@
         <v>86026</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>153256</v>
+        <v>153257</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>326</v>
@@ -1596,10 +1590,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>879377</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>1337</v>
@@ -1629,13 +1623,13 @@
         <v>994413</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2241</v>
@@ -1647,10 +1641,10 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1671,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1718,13 +1712,13 @@
         <v>239477</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>763</v>
@@ -1733,13 +1727,13 @@
         <v>481577</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1045</v>
@@ -1748,13 +1742,13 @@
         <v>721054</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>3143603</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>4597</v>
@@ -1784,28 +1778,28 @@
         <v>3321944</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>7689</v>
       </c>
       <c r="N20" s="7">
-        <v>6465547</v>
+        <v>6465548</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,7 +1841,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4014748D-4676-4B40-B6C0-CB982F599392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE9F49F-6504-4793-83DB-5E6FBD569FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8427DD20-90D8-40B2-86BD-420EE76C58B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F9B8074-F849-4AC0-961F-79EA134EEEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,3%</t>
@@ -188,7 +188,7 @@
     <t>90,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>5,86%</t>
@@ -245,7 +245,7 @@
     <t>91,81%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,48%</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E807CB-E3A6-429D-A804-7A32EE53BB0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7EEB44-1688-4704-B1C1-385A46BBD68A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EE9F49F-6504-4793-83DB-5E6FBD569FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6183913-69A1-4DB8-91B0-18E065FEE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F9B8074-F849-4AC0-961F-79EA134EEEA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C01D41C7-5041-43A1-AB68-5648277CBDA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,22%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>94,14%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>87,1%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,49 +251,55 @@
     <t>6,48%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,103 +308,103 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>89,97%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7EEB44-1688-4704-B1C1-385A46BBD68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36C9254-4B96-49AC-AC3C-EDCDC8493DFF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1432,13 +1438,13 @@
         <v>137249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1459,13 @@
         <v>680551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -1468,13 +1474,13 @@
         <v>782991</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1545</v>
@@ -1483,13 +1489,13 @@
         <v>1463542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,28 +1563,28 @@
         <v>86026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>153257</v>
+        <v>153256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>326</v>
@@ -1590,10 +1596,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1614,13 @@
         <v>879377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>1337</v>
@@ -1623,13 +1629,13 @@
         <v>994413</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2241</v>
@@ -1641,10 +1647,10 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1712,13 +1718,13 @@
         <v>239477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>763</v>
@@ -1727,13 +1733,13 @@
         <v>481577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>1045</v>
@@ -1742,13 +1748,13 @@
         <v>721054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1769,13 @@
         <v>3143603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>4597</v>
@@ -1778,28 +1784,28 @@
         <v>3321944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>7689</v>
       </c>
       <c r="N20" s="7">
-        <v>6465548</v>
+        <v>6465547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1847,7 @@
         <v>8734</v>
       </c>
       <c r="N21" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1855,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R5-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6183913-69A1-4DB8-91B0-18E065FEE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A44FD0-23FF-4726-B281-AA5CB62382BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C01D41C7-5041-43A1-AB68-5648277CBDA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B7F48D79-FF1A-47C0-879C-F9871A5A43D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36C9254-4B96-49AC-AC3C-EDCDC8493DFF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC569DC-75B4-46BE-96EF-8328C339569F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>5265</v>
+        <v>41527</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="I4" s="7">
-        <v>12274</v>
+        <v>92177</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="N4" s="7">
-        <v>17539</v>
+        <v>133703</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>672</v>
       </c>
       <c r="D5" s="7">
-        <v>95640</v>
+        <v>592885</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>216</v>
+        <v>1046</v>
       </c>
       <c r="I5" s="7">
-        <v>118459</v>
+        <v>583193</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>326</v>
+        <v>1718</v>
       </c>
       <c r="N5" s="7">
-        <v>214099</v>
+        <v>1176079</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1309782</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>40146</v>
+        <v>55109</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="I7" s="7">
-        <v>89225</v>
+        <v>121751</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="N7" s="7">
-        <v>129371</v>
+        <v>176860</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>562</v>
+        <v>891</v>
       </c>
       <c r="D8" s="7">
-        <v>509677</v>
+        <v>1137755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>830</v>
+        <v>1294</v>
       </c>
       <c r="I8" s="7">
-        <v>503330</v>
+        <v>836355</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1392</v>
+        <v>2185</v>
       </c>
       <c r="N8" s="7">
-        <v>1013007</v>
+        <v>1974111</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>60889</v>
+        <v>43046</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="I10" s="7">
-        <v>136724</v>
+        <v>80106</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>295</v>
+        <v>175</v>
       </c>
       <c r="N10" s="7">
-        <v>197613</v>
+        <v>123152</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>891</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>978359</v>
+        <v>660638</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1294</v>
+        <v>920</v>
       </c>
       <c r="I11" s="7">
-        <v>922750</v>
+        <v>852104</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2185</v>
+        <v>1545</v>
       </c>
       <c r="N11" s="7">
-        <v>1901109</v>
+        <v>1512742</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932210</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1635894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>47150</v>
+        <v>79235</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="I13" s="7">
-        <v>90099</v>
+        <v>133597</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="N13" s="7">
-        <v>137249</v>
+        <v>212832</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>625</v>
+        <v>904</v>
       </c>
       <c r="D14" s="7">
-        <v>680551</v>
+        <v>847596</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>920</v>
+        <v>1337</v>
       </c>
       <c r="I14" s="7">
-        <v>782991</v>
+        <v>958996</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1545</v>
+        <v>2241</v>
       </c>
       <c r="N14" s="7">
-        <v>1463542</v>
+        <v>1806592</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>873090</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1600791</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,49 +1500,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="D16" s="7">
-        <v>86026</v>
+        <v>218916</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>763</v>
+      </c>
+      <c r="I16" s="7">
+        <v>427630</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>224</v>
-      </c>
-      <c r="I16" s="7">
-        <v>153256</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1045</v>
+      </c>
+      <c r="N16" s="7">
+        <v>646547</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>326</v>
-      </c>
-      <c r="N16" s="7">
-        <v>239283</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
@@ -1608,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>904</v>
+        <v>3092</v>
       </c>
       <c r="D17" s="7">
-        <v>879377</v>
+        <v>3238875</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1623,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>1337</v>
+        <v>4597</v>
       </c>
       <c r="I17" s="7">
-        <v>994413</v>
+        <v>3230649</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1638,19 +1587,19 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>2241</v>
+        <v>7689</v>
       </c>
       <c r="N17" s="7">
-        <v>1873790</v>
+        <v>6469523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3457791</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3658279</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7116070</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>282</v>
-      </c>
-      <c r="D19" s="7">
-        <v>239477</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>763</v>
-      </c>
-      <c r="I19" s="7">
-        <v>481577</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1045</v>
-      </c>
-      <c r="N19" s="7">
-        <v>721054</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3092</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3143603</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4597</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3321944</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7689</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6465547</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383080</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803521</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186601</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
